--- a/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
+++ b/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>173.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.74</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,552 +550,752 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>45.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.79</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8307</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2605</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>008819</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>农银汇理策略趋势混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>92.19</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.01</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5810</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5336</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4631</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3561</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>320012</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安主题精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009989</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝研究精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>71.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001635</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001636</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000127</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>农银行业领先混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160603</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华普天收益混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>78.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>960033</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>农银消费主题混合H</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>710002</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富安达策略精选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>80.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>240001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝宝康消费品混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>74.57</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>660012</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>农银消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000039</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>农银高增长混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004192</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>93.94</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004193</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001118</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华宝事件驱动混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>91.69</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001635</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>万家瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>24.46</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001636</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>万家瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>24.46</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001659</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富安达新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002152</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华宝核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002189</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>农银汇理国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>89.39</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005492</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>农银汇理研究驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1085,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,15 +1326,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004135</t>
+          <t>660010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信量化成长混合</t>
+          <t>农银策略精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>52.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>66.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>660010</t>
+          <t>000127</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>农银策略精选混合</t>
+          <t>农银行业领先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>66.18</t>
+          <t>19.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>3.26</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>9</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6399</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320012</t>
+          <t>006007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安主题精选混合</t>
+          <t>诺安积极配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>75.21</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4784</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000127</t>
+          <t>240001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>农银行业领先混合</t>
+          <t>华宝宝康消费品混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>68.82</t>
+          <t>14.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>73.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160603</t>
+          <t>008819</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华普天收益混合</t>
+          <t>农银汇理策略趋势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3895</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005851</t>
+          <t>001118</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合A</t>
+          <t>华宝事件驱动混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3503</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005959</t>
+          <t>320012</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合C</t>
+          <t>诺安主题精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2546</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000039</t>
+          <t>160603</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>农银高增长混合</t>
+          <t>鹏华普天收益混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>72.76</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006007</t>
+          <t>000039</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安积极配置混合A</t>
+          <t>农银高增长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006008</t>
+          <t>002189</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安积极配置混合C</t>
+          <t>农银汇理国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>240001</t>
+          <t>006008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华宝宝康消费品混合</t>
+          <t>诺安积极配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>73.91</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001118</t>
+          <t>002152</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华宝事件驱动混合</t>
+          <t>华宝核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>83.23</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002152</t>
+          <t>005851</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝核心优势灵活配置混合</t>
+          <t>财通新视野灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>85.58</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>590007</t>
+          <t>004135</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强A</t>
+          <t>申万菱信量化成长混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008124</t>
+          <t>005959</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强C</t>
+          <t>财通新视野灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002189</t>
+          <t>590007</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>农银汇理国企改革灵活配置混合</t>
+          <t>中邮中证500指数增强A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>50.19</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008819</t>
+          <t>008124</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>农银汇理策略趋势混合</t>
+          <t>中邮中证500指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>68.74</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
+++ b/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1999,4 +2000,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8396</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5903</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5766</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4522</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3934</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3348</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>59.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
+++ b/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3006,4 +3007,856 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0592</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>66.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
+++ b/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3859,4 +3860,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
+++ b/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3868,7 +3869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3879,17 +3880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3899,14 +3920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.16</v>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2028</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3915,14 +3958,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.03</v>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3931,14 +3996,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.76</v>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3947,13 +4034,1137 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2326</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4935</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>14.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
+++ b/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5063,7 +5064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5074,17 +5075,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5094,14 +5115,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.2</v>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5110,14 +5153,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.16</v>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1517</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5126,14 +5191,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.03</v>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5142,14 +5229,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.76</v>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8943</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5158,13 +5267,923 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4151</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>14.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
+++ b/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6066,7 +6067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6077,17 +6078,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6097,14 +6118,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.96</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>197.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5893</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6113,14 +6156,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.2</v>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9811</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6129,14 +6194,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.16</v>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -6145,14 +6232,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.03</v>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0836</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6161,14 +6270,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.76</v>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7771</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -6177,13 +6308,1019 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015183</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>14.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
+++ b/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,37 +468,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -508,36 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>180012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华富裕主题混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>173.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.4934</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.99</v>
       </c>
     </row>
     <row r="3">
@@ -546,36 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>660010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>农银策略精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>45.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8307</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.96</v>
       </c>
     </row>
     <row r="4">
@@ -584,36 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009989</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝研究精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>46.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2605</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.2</v>
       </c>
     </row>
     <row r="5">
@@ -622,36 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000127</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>农银行业领先混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>21.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8030</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.16</v>
       </c>
     </row>
     <row r="6">
@@ -660,36 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008819</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>农银汇理策略趋势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5810</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.03</v>
       </c>
     </row>
     <row r="7">
@@ -698,36 +568,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001118</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝事件驱动混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.86</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5336</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.76</v>
       </c>
     </row>
     <row r="8">
@@ -736,568 +584,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>960033</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>农银消费主题混合H</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4758</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>660012</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>农银消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4758</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>240001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华宝宝康消费品混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>16.78</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>74.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4631</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>320012</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺安主题精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3561</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160603</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华普天收益混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>78.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2401</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002189</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>农银汇理国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.39</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1746</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000039</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>农银高增长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1738</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001635</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>24.46</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0667</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001636</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>万家瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>24.46</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0591</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005492</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>农银汇理研究驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0587</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>710002</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富安达策略精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>80.04</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002152</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华宝核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001659</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富安达新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004192</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004193</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.14</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1332,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1362,32 +656,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>660010</t>
+          <t>180012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>农银策略精选混合</t>
+          <t>银华富裕主题混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.34</t>
+          <t>197.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.18</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7063</t>
+          <t>9.5893</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1400,22 +694,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000127</t>
+          <t>006408</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>农银行业领先混合</t>
+          <t>汇添富消费升级混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.63</t>
+          <t>60.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>68.82</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1425,11 +719,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6399</t>
+          <t>1.9811</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1438,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006007</t>
+          <t>009086</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安积极配置混合A</t>
+          <t>鹏华价值共赢两年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>14.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>85.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4784</t>
+          <t>1.4122</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1476,32 +770,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>240001</t>
+          <t>660010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝宝康消费品混合</t>
+          <t>农银策略精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.76</t>
+          <t>36.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.91</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4089</t>
+          <t>1.0836</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1514,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008819</t>
+          <t>004424</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>农银汇理策略趋势混合</t>
+          <t>汇添富文体娱乐主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>22.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>68.74</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3895</t>
+          <t>0.7771</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1552,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001118</t>
+          <t>240001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝事件驱动混合</t>
+          <t>华宝宝康消费品混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.23</t>
+          <t>69.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3503</t>
+          <t>0.4130</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1590,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>320012</t>
+          <t>000127</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺安主题精选混合</t>
+          <t>农银行业领先混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>75.21</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2546</t>
+          <t>0.3310</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1628,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160603</t>
+          <t>011153</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华普天收益混合</t>
+          <t>华宝新兴消费混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2050</t>
+          <t>0.2944</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1666,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000039</t>
+          <t>008819</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>农银高增长混合</t>
+          <t>农银汇理策略趋势混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>72.76</t>
+          <t>90.66</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1228</t>
+          <t>0.2049</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1704,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002189</t>
+          <t>003857</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>农银汇理国企改革灵活配置混合</t>
+          <t>前海开源周期优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>50.19</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0824</t>
+          <t>0.1575</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1742,32 +1036,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006008</t>
+          <t>004634</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>诺安积极配置混合C</t>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0543</t>
+          <t>0.0964</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1780,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002152</t>
+          <t>510630</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华宝核心优势灵活配置混合</t>
+          <t>华夏上证主要消费ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.58</t>
+          <t>99.60</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0232</t>
+          <t>0.0952</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1818,36 +1112,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005851</t>
+          <t>005526</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合A</t>
+          <t>工银瑞信新生代消费灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0205</t>
+          <t>0.0925</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1856,36 +1150,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004135</t>
+          <t>160603</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>申万菱信量化成长混合</t>
+          <t>鹏华普天收益混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>67.58</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.0908</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1894,36 +1188,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005959</t>
+          <t>001421</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合C</t>
+          <t>南方量化成长股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>92.13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0539</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1932,36 +1226,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>590007</t>
+          <t>010560</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强A</t>
+          <t>永赢稳健增利18个月持有期混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0531</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1970,36 +1264,454 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008124</t>
+          <t>013595</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强C</t>
+          <t>永赢稳健增利18个月持有期混合E</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0531</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015183</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2034,7 +1746,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2064,32 +1776,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>660010</t>
+          <t>006408</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>农银策略精选混合</t>
+          <t>汇添富消费升级混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.10</t>
+          <t>42.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.15</t>
+          <t>87.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8396</t>
+          <t>1.9780</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2112,26 +1824,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.98</t>
+          <t>19.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>64.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2006</t>
+          <t>1.1517</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2140,36 +1852,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006007</t>
+          <t>660010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安积极配置混合A</t>
+          <t>农银策略精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>31.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>75.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5903</t>
+          <t>1.0612</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2178,36 +1890,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000127</t>
+          <t>010815</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>农银行业领先混合</t>
+          <t>农银汇理新兴消费股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>29.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>83.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5766</t>
+          <t>0.8943</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2216,36 +1928,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>240001</t>
+          <t>000127</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝宝康消费品混合</t>
+          <t>农银行业领先混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.81</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>70.21</t>
+          <t>75.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4522</t>
+          <t>0.4151</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2254,36 +1966,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>320012</t>
+          <t>240001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安主题精选混合</t>
+          <t>华宝宝康消费品混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>62.57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3934</t>
+          <t>0.4148</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2292,36 +2004,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008819</t>
+          <t>011153</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>农银汇理策略趋势混合</t>
+          <t>华宝新兴消费混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>77.87</t>
+          <t>87.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3609</t>
+          <t>0.3103</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2330,22 +2042,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001118</t>
+          <t>008819</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝事件驱动混合</t>
+          <t>农银汇理策略趋势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.31</t>
+          <t>76.46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2355,11 +2067,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3348</t>
+          <t>0.2147</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2368,36 +2080,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011153</t>
+          <t>004634</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝新兴消费混合A</t>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>46.66</t>
+          <t>89.65</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2948</t>
+          <t>0.1008</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2406,36 +2118,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002967</t>
+          <t>510630</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浙商大数据智选消费灵活配置混合</t>
+          <t>华夏上证主要消费ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>99.52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2070</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2444,36 +2156,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501015</t>
+          <t>012080</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）</t>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>84.83</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1996</t>
+          <t>0.0675</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2482,36 +2194,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>159758</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数A</t>
+          <t>华夏中证红利质量ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.88</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>99.16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1344</t>
+          <t>0.0644</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2520,36 +2232,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000039</t>
+          <t>010636</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>农银高增长混合</t>
+          <t>财通安盈混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>34.52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0982</t>
+          <t>0.0442</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2558,36 +2270,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002189</t>
+          <t>006235</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>农银汇理国企改革灵活配置混合</t>
+          <t>东方城镇消费主题混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.88</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0748</t>
+          <t>0.0376</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2596,36 +2308,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>920008</t>
+          <t>001421</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中金进取回报灵活配置混合A</t>
+          <t>南方量化成长股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>24.40</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0594</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -2634,36 +2346,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006008</t>
+          <t>008353</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>诺安积极配置混合C</t>
+          <t>泰达宏利消费行业量化精选混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0495</t>
+          <t>0.0308</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2672,36 +2384,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005851</t>
+          <t>010637</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合A</t>
+          <t>财通安盈混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>34.52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2710,36 +2422,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005492</t>
+          <t>012081</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>农银汇理研究驱动灵活配置混合</t>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>59.41</t>
+          <t>84.83</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2748,32 +2460,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002152</t>
+          <t>561350</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华宝核心优势灵活配置混合</t>
+          <t>国泰中证500ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>82.56</t>
+          <t>96.89</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0254</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2786,36 +2498,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002495</t>
+          <t>008354</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>前海开源量化优选灵活配置混合A</t>
+          <t>泰达宏利消费行业量化精选混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2824,36 +2536,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>920928</t>
+          <t>011154</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中金进取回报灵活配置混合C</t>
+          <t>华宝新兴消费混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24.40</t>
+          <t>87.87</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2862,36 +2574,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002496</t>
+          <t>007943</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>前海开源量化优选灵活配置混合C</t>
+          <t>富安达中证 500 指数增强</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -2900,36 +2612,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005959</t>
+          <t>010957</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合C</t>
+          <t>九泰久安量化股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>81.02</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2938,36 +2650,34 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011154</t>
+          <t>010961</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华宝新兴消费混合C</t>
+          <t>九泰久安量化股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>46.66</t>
+          <t>81.02</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2976,36 +2686,34 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002982</t>
+          <t>007041</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数C</t>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>89.65</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3014,6 +2722,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2028</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2326</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4935</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3858,1200 +4760,6 @@
       </c>
       <c r="H22" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010115</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达远见成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>75.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.2028</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006408</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富消费升级混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>69.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.5014</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009086</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华价值共赢两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>67.96</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2729</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>660010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>农银策略精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>39.89</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.44</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2326</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011153</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝新兴消费混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.59</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>74.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4935</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>240001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝宝康消费品混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.88</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>69.30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4580</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000127</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>农银行业领先混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3795</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001118</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝事件驱动混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.44</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2708</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008819</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>农银汇理策略趋势混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2487</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007133</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2262</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501015</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>财通多策略升级混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1194</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011412</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达远见成长混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1106</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>012080</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达中证500指数量化增强型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10.89</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>84.57</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1067</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001437</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1066</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001438</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1066</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001088</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华宝国策导向混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.47</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0897</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002495</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0506</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>561350</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国泰中证500ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>97.45</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0459</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011824</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>浙商汇金量化臻选股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0379</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010957</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>九泰久安量化股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>80.45</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005851</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.41</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0253</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001421</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>南方量化成长股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002152</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华宝核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>79.16</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>012081</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>易方达中证500指数量化增强型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>84.57</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002496</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005959</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.41</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011825</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>浙商汇金量化臻选股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011154</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华宝新兴消费混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>74.02</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007134</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010961</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>九泰久安量化股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>80.45</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5086,7 +4794,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -5116,32 +4824,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006408</t>
+          <t>660010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富消费升级混合</t>
+          <t>农银策略精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.63</t>
+          <t>51.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.97</t>
+          <t>77.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9780</t>
+          <t>1.8396</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5164,26 +4872,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.26</t>
+          <t>26.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64.26</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1517</t>
+          <t>1.2006</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5192,36 +4900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>660010</t>
+          <t>006007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>农银策略精选混合</t>
+          <t>诺安积极配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.49</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.60</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0612</t>
+          <t>0.5903</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5230,36 +4938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010815</t>
+          <t>000127</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>农银汇理新兴消费股票</t>
+          <t>农银行业领先混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29.81</t>
+          <t>16.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.28</t>
+          <t>78.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8943</t>
+          <t>0.5766</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5268,36 +4976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000127</t>
+          <t>240001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>农银行业领先混合</t>
+          <t>华宝宝康消费品混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>15.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.75</t>
+          <t>70.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4151</t>
+          <t>0.4522</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -5306,36 +5014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>240001</t>
+          <t>320012</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝宝康消费品混合</t>
+          <t>诺安主题精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>62.57</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4148</t>
+          <t>0.3934</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -5344,36 +5052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011153</t>
+          <t>008819</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝新兴消费混合A</t>
+          <t>农银汇理策略趋势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.87</t>
+          <t>77.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3103</t>
+          <t>0.3609</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -5382,22 +5090,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008819</t>
+          <t>001118</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>农银汇理策略趋势混合</t>
+          <t>华宝事件驱动混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.46</t>
+          <t>81.31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -5407,11 +5115,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2147</t>
+          <t>0.3348</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -5420,36 +5128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004634</t>
+          <t>011153</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
+          <t>华宝新兴消费混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>46.66</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1008</t>
+          <t>0.2948</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -5458,36 +5166,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>510630</t>
+          <t>002967</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏上证主要消费ETF</t>
+          <t>浙商大数据智选消费灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.52</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0763</t>
+          <t>0.2070</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -5496,36 +5204,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012080</t>
+          <t>501015</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达中证500指数量化增强型证券投资基金A</t>
+          <t>财通多策略升级混合（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.83</t>
+          <t>93.12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0675</t>
+          <t>0.1996</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -5534,36 +5242,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>159758</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏中证红利质量ETF</t>
+          <t>广发中证养老产业指数A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>99.16</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0644</t>
+          <t>0.1344</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -5572,36 +5280,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010636</t>
+          <t>000039</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通安盈混合A</t>
+          <t>农银高增长混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>34.52</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0442</t>
+          <t>0.0982</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -5610,36 +5318,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006235</t>
+          <t>002189</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方城镇消费主题混合</t>
+          <t>农银汇理国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>78.88</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0376</t>
+          <t>0.0748</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -5648,36 +5356,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001421</t>
+          <t>920008</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方量化成长股票</t>
+          <t>中金进取回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>24.40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0594</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -5686,36 +5394,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008353</t>
+          <t>006008</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰达宏利消费行业量化精选混合A</t>
+          <t>诺安积极配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0308</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -5724,36 +5432,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010637</t>
+          <t>005851</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>财通安盈混合C</t>
+          <t>财通新视野灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>34.52</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -5762,36 +5470,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>012081</t>
+          <t>005492</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达中证500指数量化增强型证券投资基金C</t>
+          <t>农银汇理研究驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>84.83</t>
+          <t>59.41</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -5800,32 +5508,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>561350</t>
+          <t>002152</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰中证500ETF</t>
+          <t>华宝核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>96.89</t>
+          <t>82.56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -5838,36 +5546,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008354</t>
+          <t>002495</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泰达宏利消费行业量化精选混合C</t>
+          <t>前海开源量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0217</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -5876,36 +5584,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011154</t>
+          <t>920928</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华宝新兴消费混合C</t>
+          <t>中金进取回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>87.87</t>
+          <t>24.40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -5914,36 +5622,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007943</t>
+          <t>002496</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富安达中证 500 指数增强</t>
+          <t>前海开源量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -5952,36 +5660,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010957</t>
+          <t>005959</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>九泰久安量化股票型证券投资基金A</t>
+          <t>财通新视野灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>81.02</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -5990,34 +5698,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010961</t>
+          <t>011154</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>九泰久安量化股票型证券投资基金C</t>
+          <t>华宝新兴消费混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>81.02</t>
+          <t>46.66</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -6026,34 +5736,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>007041</t>
+          <t>002982</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
+          <t>广发中证养老产业指数C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6067,7 +5779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6088,7 +5800,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -6118,32 +5830,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>180012</t>
+          <t>660010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华富裕主题混合</t>
+          <t>农银策略精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>197.31</t>
+          <t>52.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>66.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.5893</t>
+          <t>1.7063</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -6156,22 +5868,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006408</t>
+          <t>000127</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富消费升级混合</t>
+          <t>农银行业领先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60.77</t>
+          <t>19.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>68.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -6181,11 +5893,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9811</t>
+          <t>0.6399</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6194,36 +5906,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009086</t>
+          <t>006007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华价值共赢两年持有期混合</t>
+          <t>诺安积极配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.96</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>83.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4122</t>
+          <t>0.4784</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6232,32 +5944,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>660010</t>
+          <t>240001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>农银策略精选混合</t>
+          <t>华宝宝康消费品混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.12</t>
+          <t>14.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>73.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0836</t>
+          <t>0.4089</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -6270,36 +5982,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004424</t>
+          <t>008819</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富文体娱乐主题混合</t>
+          <t>农银汇理策略趋势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.99</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>68.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7771</t>
+          <t>0.3895</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -6308,36 +6020,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>240001</t>
+          <t>001118</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝宝康消费品混合</t>
+          <t>华宝事件驱动混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.63</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69.53</t>
+          <t>83.23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4130</t>
+          <t>0.3503</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -6346,36 +6058,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000127</t>
+          <t>320012</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>农银行业领先混合</t>
+          <t>诺安主题精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>75.21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3310</t>
+          <t>0.2546</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -6384,36 +6096,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011153</t>
+          <t>160603</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝新兴消费混合A</t>
+          <t>鹏华普天收益混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>79.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2944</t>
+          <t>0.2050</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -6422,36 +6134,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008819</t>
+          <t>000039</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>农银汇理策略趋势混合</t>
+          <t>农银高增长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>72.76</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2049</t>
+          <t>0.1228</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -6460,36 +6172,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003857</t>
+          <t>002189</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源周期优选灵活配置混合A</t>
+          <t>农银汇理国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>50.19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1575</t>
+          <t>0.0824</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -6498,32 +6210,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004634</t>
+          <t>006008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
+          <t>诺安积极配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>83.18</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0964</t>
+          <t>0.0543</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -6536,36 +6248,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>510630</t>
+          <t>002152</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏上证主要消费ETF</t>
+          <t>华宝核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>99.60</t>
+          <t>85.58</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0952</t>
+          <t>0.0232</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -6574,36 +6286,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005526</t>
+          <t>005851</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
+          <t>财通新视野灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>88.92</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0925</t>
+          <t>0.0205</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -6612,36 +6324,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160603</t>
+          <t>004135</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华普天收益混合</t>
+          <t>申万菱信量化成长混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67.58</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0908</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -6650,36 +6362,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001421</t>
+          <t>005959</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方量化成长股票</t>
+          <t>财通新视野灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>88.92</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0539</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -6688,36 +6400,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010560</t>
+          <t>590007</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>永赢稳健增利18个月持有期混合</t>
+          <t>中邮中证500指数增强A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23.94</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0531</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -6726,454 +6438,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>013595</t>
+          <t>008124</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>永赢稳健增利18个月持有期混合E</t>
+          <t>中邮中证500指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23.94</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0531</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003858</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>前海开源周期优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0465</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010703</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>财通智选消费股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0387</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>011004</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>永赢鑫盛混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>23.04</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008353</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>泰达宏利消费行业量化精选混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010704</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>财通智选消费股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010253</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>兴银中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>84.71</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>011205</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>兴银中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>84.71</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007041</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008354</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>泰达宏利消费行业量化精选混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011154</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华宝新兴消费混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>015183</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>汇添富文体娱乐主题混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7187,7 +6481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7198,17 +6492,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7218,14 +6532,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.99</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7234,14 +6570,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.96</v>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8307</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7250,14 +6608,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.2</v>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2605</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7266,14 +6646,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.16</v>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -7282,14 +6684,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.03</v>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5810</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -7298,14 +6722,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>17</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.76</v>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5336</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -7314,14 +6760,568 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>21</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.14</v>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4631</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3561</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001635</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001636</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
+++ b/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>16.99</v>
+        <v>26.24</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>6.96</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>12.2</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>7.16</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>7.03</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>4.76</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>14.14</v>
       </c>
     </row>
@@ -600,6 +617,3204 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>170.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>178.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2319</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合D</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7907</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1031</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7784</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6560</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012389</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信澳品质回报6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5541</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4821</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4672</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4075</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信澳至诚精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信澳红利回报混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013836</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时时代消费混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信澳蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013674</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>850013</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015187</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>67.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001115</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发聚安混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015361</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001116</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发聚安混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015085</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013675</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013837</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时时代消费混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014080</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014953</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>信澳至诚精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015183</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>67.16</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015184</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合D</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>851399</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1719,7 +4934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2721,7 +5936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3915,7 +7130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4767,7 +7982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5773,7 +8988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6475,7 +9690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
+++ b/数据整理/stocks/A股/上证主板/603605-珀莱雅.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n">
-        <v>26.24</v>
+        <v>28.87</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D3" t="n">
-        <v>16.99</v>
+        <v>26.24</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>6.96</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>12.2</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>7.16</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>7.03</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>4.76</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,884 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>21</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>14.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8307</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2605</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5810</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5336</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4631</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3561</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001635</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001636</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1488,3622 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>183.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1868</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4577</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9599</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9322</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安生态优先混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8803</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8509</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6862</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6299</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4188</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2765</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014977</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安生态优先混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013836</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时时代消费混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013387</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城价值领航混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010876</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013674</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012312</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015187</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015183</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>850013</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012313</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>016385</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>永赢消费鑫选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>016384</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>永赢消费鑫选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013388</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城价值领航混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015188</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合D</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010877</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159798</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015184</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合D</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013675</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014835</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长盛安盈混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013837</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时时代消费混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015617</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢卓越臻选股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015618</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>永赢卓越臻选股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013407</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长盛安盈混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>016402</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015074</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>851399</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>017099</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>017177</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3814,7 +8301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4934,7 +9421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5936,7 +10423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7130,7 +11617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7982,7 +12469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8988,7 +13475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9688,858 +14175,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>180012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华富裕主题混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>173.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.4934</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>660010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>农银策略精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>45.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8307</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009989</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝研究精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>46.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2605</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000127</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>农银行业领先混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>21.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8030</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008819</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>农银汇理策略趋势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5810</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001118</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝事件驱动混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.86</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5336</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>960033</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>农银消费主题混合H</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4758</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>660012</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>农银消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4758</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>240001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华宝宝康消费品混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>16.78</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>74.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4631</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>320012</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺安主题精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3561</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160603</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华普天收益混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>78.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2401</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002189</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>农银汇理国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.39</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1746</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000039</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>农银高增长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1738</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001635</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>24.46</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0667</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001636</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>万家瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>24.46</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0591</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005492</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>农银汇理研究驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0587</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>710002</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富安达策略精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>80.04</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002152</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华宝核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001659</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富安达新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004192</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004193</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>